--- a/data/trans_dic/iP30KDB1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30KDB1_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>79,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>79,31%</t>
+          <t>84,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>81,91%</t>
+          <t>81,93%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>75,01; 91,83</t>
+          <t>69,33; 86,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,59; 87,25</t>
+          <t>73,9; 91,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74,43; 87,12</t>
+          <t>75,54; 87,53</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,63%</t>
+          <t>92,69%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,82; 96,04</t>
+          <t>86,56; 94,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,61; 94,78</t>
+          <t>89,86; 96,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,06; 94,78</t>
+          <t>90,16; 94,74</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>95,19%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>92,02; 97,56</t>
+          <t>91,42; 97,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>92,0; 97,29</t>
+          <t>91,93; 97,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,96; 96,75</t>
+          <t>93,02; 96,83</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>91,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>93,47%</t>
+          <t>92,9%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,06; 95,71</t>
+          <t>92,04; 97,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,83; 96,75</t>
+          <t>79,15; 95,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,55; 95,53</t>
+          <t>85,89; 95,35</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>92,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>92,97%</t>
+          <t>92,76%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,71; 94,77</t>
+          <t>91,08; 94,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>91,05; 94,37</t>
+          <t>87,66; 94,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>91,16; 94,14</t>
+          <t>90,13; 94,1</t>
         </is>
       </c>
     </row>
